--- a/4 - Plots/All_Graphs/DemandSelections.xlsx
+++ b/4 - Plots/All_Graphs/DemandSelections.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">DemandScenarios</t>
   </si>
   <si>
-    <t xml:space="preserve">PCDD_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2070_63%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2070100%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDD_2150_63%AG CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighET_2150100%AG CF</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
   </si>
 </sst>
 </file>
